--- a/WorkBot/main/backend/ordering/OrderFiles/US Foods/US Foods_Bakery_20250323.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/US Foods/US Foods_Bakery_20250323.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,33 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>92210</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chocolate Chips 4M - Semi-Sweet</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>255.96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
